--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,69 +581,69 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vN7y4EYG</t>
+          <t>xQJuPHfE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vinotinto</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -653,147 +653,147 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" t="n">
         <v>9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8.5</v>
       </c>
       <c r="W2" t="n">
         <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
       </c>
       <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
         <v>17</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AG2" t="n">
         <v>51</v>
       </c>
-      <c r="AD2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
       <c r="AH2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="n">
         <v>51</v>
       </c>
-      <c r="AI2" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>h8frOX3C</t>
+          <t>4z4KHZnl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -808,28 +808,28 @@
         <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -838,120 +838,120 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dz8rhRzq</t>
+          <t>IVTDWl0U</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -960,374 +960,402 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OS2RRF4m</t>
+          <t>pMZ8o6Ik</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.1</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8.5</v>
       </c>
-      <c r="W5" t="n">
-        <v>12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>17</v>
       </c>
-      <c r="AC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>26</v>
-      </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ERtys8qh</t>
+          <t>I7JS5z44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.37</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.83</v>
+      </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>200</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AgzpunE4</t>
+          <t>Ea8MMbHk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>2.57</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="M7" t="n">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.48</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
       <c r="R7" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="V7" t="n">
-        <v>7.1</v>
+        <v>12.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>45</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>4.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AD7" t="n">
-        <v>300</v>
+        <v>5.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>11.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pAinufaD</t>
+          <t>AR1VKxn2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1337,1075 +1365,899 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="K8" t="n">
-        <v>9.25</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="M8" t="n">
-        <v>4.15</v>
+        <v>2.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="U8" t="n">
         <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>4.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="n">
-        <v>126</v>
+        <v>6.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>11.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q5UY2ciK</t>
+          <t>CYprCq0B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ENGLAND - LEAGUE TWO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Crewe</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.05</v>
-      </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cz8FFzyQ</t>
+          <t>SUhXUE3s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.25</v>
-      </c>
+        <v>7.6</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
-        <v>4.05</v>
+        <v>3.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.1</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="U10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W10" t="n">
         <v>9</v>
       </c>
-      <c r="V10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>13</v>
-      </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>d8qnAEbm</t>
+          <t>0riuThYg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.75</v>
-      </c>
+        <v>2.37</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+        <v>2.12</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="V11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AD11" t="n">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ncGTiXrJ</t>
+          <t>tbCPObCm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>8</v>
-      </c>
-      <c r="U12" t="n">
-        <v>11</v>
-      </c>
-      <c r="V12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>23</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
+          <t>BFC Daugavpils</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UP3mhUAG</t>
+          <t>SEAXMxs0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Super Nova</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>10</v>
-      </c>
-      <c r="V13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>21</v>
-      </c>
-      <c r="X13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>45</v>
-      </c>
+          <t>Grobina</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lUzCJHxH</t>
+          <t>Ik60pwCa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Johor DT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
+          <t>Kelantan DNFC</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>f375J3z8</t>
+          <t>ABwth66e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>23:05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K15" t="n">
+        <v>23</v>
+      </c>
       <c r="L15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.25</v>
       </c>
-      <c r="M15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>3.75</v>
+      </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>1.99</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.75</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.25</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M9ais7SE</t>
+          <t>pfkxBb6C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="O16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R16" t="n">
-        <v>2.33</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U16" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="V16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
         <v>11</v>
       </c>
-      <c r="W16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dYIfTuMt</t>
+          <t>KUdjK2qQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2420,266 +2272,266 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.67</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
         <v>11</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>21</v>
-      </c>
-      <c r="X17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SfzJLLlS</t>
+          <t>bNbmorVi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6</v>
+      </c>
+      <c r="U18" t="n">
         <v>9</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="V18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="n">
         <v>17</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="AC18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD18" t="n">
         <v>9</v>
       </c>
-      <c r="U18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>9</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KhFcEws2</t>
+          <t>hMidqMa4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Atl. Tembetary</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2688,95 +2540,95 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" t="n">
         <v>9.5</v>
       </c>
-      <c r="V19" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W19" t="n">
+        <v>21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="n">
         <v>15</v>
       </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
         <v>13</v>
       </c>
-      <c r="AA19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AG19" t="n">
         <v>41</v>
       </c>
-      <c r="AD19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
       <c r="AH19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI19" t="n">
         <v>41</v>
       </c>
-      <c r="AI19" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QkzJHCmf</t>
+          <t>z1cpxsZ8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2786,40 +2638,40 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2828,367 +2680,1155 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
+        <v>9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13</v>
+      </c>
+      <c r="V20" t="n">
+        <v>10</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
         <v>11</v>
-      </c>
-      <c r="U20" t="n">
-        <v>19</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13</v>
-      </c>
-      <c r="W20" t="n">
-        <v>41</v>
-      </c>
-      <c r="X20" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>201</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6PipXzkg</t>
+          <t>6mKHJYIs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Maribor</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Celje</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>12</v>
+      </c>
+      <c r="U21" t="n">
+        <v>17</v>
+      </c>
+      <c r="V21" t="n">
+        <v>11</v>
+      </c>
+      <c r="W21" t="n">
+        <v>29</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8UPJGF4C</t>
+          <t>YyiG10cd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>O. Ljubljana</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB22" t="n">
         <v>13</v>
       </c>
-      <c r="Y22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>800</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0IyNGLp3</t>
+          <t>nFPf7sA7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U23" t="n">
         <v>9</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="n">
         <v>9.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
-      <c r="W23" t="n">
-        <v>19</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
       </c>
       <c r="AI23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IZXwBPAr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9</v>
+      </c>
+      <c r="W24" t="n">
+        <v>15</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH24" t="n">
         <v>29</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
+      <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CWRLLtP0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nFyBIyz0</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>40</v>
+      </c>
+      <c r="X26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>YBgxZdKt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Domzale</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>16</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xOOfmCYq</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W28" t="n">
+        <v>14</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELDw5Ayg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>19</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -662,16 +662,16 @@
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -778,10 +778,10 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -1379,52 +1379,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="M8" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="S8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U8" t="n">
         <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W8" t="n">
         <v>37</v>
@@ -1433,37 +1433,37 @@
         <v>35</v>
       </c>
       <c r="Y8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AA8" t="n">
         <v>5.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -1510,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
         <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>3.25</v>
@@ -1525,7 +1525,7 @@
         <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1623,74 +1623,74 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H10" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="N10" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.25</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>200</v>
@@ -1699,10 +1699,10 @@
         <v>90</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11">
@@ -1850,36 +1850,92 @@
           <t>BFC Daugavpils</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.32</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>26</v>
+      </c>
+      <c r="X12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1912,36 +1968,88 @@
           <t>Grobina</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.87</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2046,10 +2154,10 @@
         <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
         <v>1.13</v>
@@ -2168,16 +2276,16 @@
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N16" t="n">
         <v>1.53</v>
@@ -2281,19 +2389,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
         <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2338,10 +2446,10 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2403,13 +2511,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2436,16 +2544,16 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
@@ -2466,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2478,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
@@ -2534,13 +2642,13 @@
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -2656,13 +2764,13 @@
         <v>2.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>3.5</v>
@@ -2778,13 +2886,13 @@
         <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
         <v>4.33</v>
@@ -2900,13 +3008,13 @@
         <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
         <v>3.5</v>
@@ -3022,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
         <v>1.14</v>
@@ -3034,10 +3142,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P23" t="n">
         <v>1.25</v>
@@ -3046,31 +3154,31 @@
         <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
+        <v>11</v>
+      </c>
+      <c r="U23" t="n">
         <v>9.5</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>9</v>
       </c>
-      <c r="V23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
         <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
@@ -3082,10 +3190,10 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3094,13 +3202,13 @@
         <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -3263,7 +3371,7 @@
         <v>6.5</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -3290,22 +3398,22 @@
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3314,25 +3422,25 @@
         <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>51</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
@@ -3344,7 +3452,7 @@
         <v>51</v>
       </c>
       <c r="AJ25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3504,34 +3612,34 @@
         <v>1.88</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
         <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O27" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
         <v>1.78</v>
@@ -3540,10 +3648,10 @@
         <v>1.93</v>
       </c>
       <c r="T27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V27" t="n">
         <v>8.25</v>
@@ -3558,22 +3666,22 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
         <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD27" t="n">
         <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>13</v>
@@ -3756,16 +3864,16 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
         <v>1.42</v>
@@ -3804,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
         <v>90</v>
@@ -3822,7 +3930,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -659,7 +659,7 @@
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -674,10 +674,10 @@
         <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R2" t="n">
         <v>2.2</v>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
         <v>7.5</v>
@@ -778,34 +778,34 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="n">
         <v>5.5</v>
@@ -853,7 +853,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>301</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1049,7 +1049,7 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -1141,7 +1141,7 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1168,10 +1168,10 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
@@ -1510,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
         <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>3.25</v>
@@ -1525,7 +1525,7 @@
         <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1534,10 +1534,10 @@
         <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
@@ -1623,27 +1623,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1666,7 +1666,7 @@
         <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
@@ -1678,22 +1678,22 @@
         <v>8.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="n">
         <v>90</v>
@@ -1702,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
         <v>1.28</v>
       </c>
       <c r="M12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N12" t="n">
         <v>1.85</v>
@@ -1874,61 +1874,61 @@
         <v>1.75</v>
       </c>
       <c r="P12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S12" t="n">
         <v>2.01</v>
       </c>
       <c r="T12" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
         <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>45</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -1969,86 +1969,86 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="U13" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB13" t="n">
         <v>11.25</v>
       </c>
-      <c r="AA13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AC13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="n">
         <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14">
@@ -2166,10 +2166,10 @@
         <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.25</v>
@@ -2178,10 +2178,10 @@
         <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
         <v>12</v>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
         <v>4.5</v>
@@ -2282,16 +2282,16 @@
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P16" t="n">
         <v>1.29</v>
@@ -2300,7 +2300,7 @@
         <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
         <v>2.2</v>
@@ -2318,16 +2318,16 @@
         <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2398,10 +2398,10 @@
         <v>6.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2422,7 +2422,7 @@
         <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="n">
         <v>2.1</v>
@@ -2547,7 +2547,7 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T18" t="n">
         <v>6</v>
@@ -2824,7 +2824,7 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -2949,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>9.5</v>
@@ -3008,10 +3008,10 @@
         <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -3264,10 +3264,10 @@
         <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3377,7 +3377,7 @@
         <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
         <v>1.1</v>
@@ -3386,10 +3386,10 @@
         <v>6.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P25" t="n">
         <v>1.2</v>
@@ -3404,10 +3404,10 @@
         <v>1.91</v>
       </c>
       <c r="T25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
         <v>10</v>
@@ -3422,25 +3422,25 @@
         <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>51</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3867,7 +3867,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N29" t="n">
         <v>2.07</v>
@@ -3882,31 +3882,31 @@
         <v>2.45</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T29" t="n">
         <v>6.5</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
@@ -3915,28 +3915,28 @@
         <v>15.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -960,10 +960,10 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1049,7 +1049,7 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1168,28 +1168,28 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U6" t="n">
         <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
         <v>9</v>
@@ -1204,10 +1204,10 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1216,13 +1216,13 @@
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.57</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="J7" t="n">
         <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.7</v>
       </c>
       <c r="M7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N7" t="n">
         <v>3.05</v>
@@ -1287,61 +1287,61 @@
         <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S7" t="n">
         <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="n">
         <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AA7" t="n">
         <v>5.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -1516,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
         <v>2.05</v>
@@ -1534,10 +1534,10 @@
         <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
@@ -1623,86 +1623,86 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T10" t="n">
         <v>6.9</v>
       </c>
       <c r="U10" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="V10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
         <v>80</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI10" t="n">
         <v>65</v>
       </c>
-      <c r="AF10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1751,7 +1751,7 @@
         <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="N11" t="n">
         <v>1.57</v>
@@ -1762,34 +1762,34 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U11" t="n">
         <v>17</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB11" t="n">
         <v>10.75</v>
@@ -1798,22 +1798,22 @@
         <v>35</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE11" t="n">
         <v>14.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ11" t="n">
         <v>200</v>
@@ -1862,10 +1862,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N12" t="n">
         <v>1.85</v>
@@ -1880,10 +1880,10 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>8.25</v>
@@ -1997,7 +1997,7 @@
         <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="T13" t="n">
         <v>7.2</v>
@@ -2178,10 +2178,10 @@
         <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
         <v>12</v>
@@ -2300,13 +2300,13 @@
         <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
         <v>9</v>
@@ -2389,19 +2389,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2410,19 +2410,19 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>2.1</v>
@@ -2461,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -2547,7 +2547,7 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>6</v>
@@ -2776,10 +2776,10 @@
         <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -3023,7 +3023,7 @@
         <v>1.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3121,19 +3121,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L23" t="n">
         <v>1.14</v>
@@ -3142,10 +3142,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P23" t="n">
         <v>1.25</v>
@@ -3154,31 +3154,31 @@
         <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W23" t="n">
         <v>11</v>
-      </c>
-      <c r="U23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
-      <c r="W23" t="n">
-        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
         <v>19</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
@@ -3190,7 +3190,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>34</v>
@@ -3202,13 +3202,13 @@
         <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -3243,31 +3243,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3285,7 +3285,7 @@
         <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
@@ -3452,7 +3452,7 @@
         <v>51</v>
       </c>
       <c r="AJ25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -3496,34 +3496,34 @@
         <v>2.18</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P26" t="n">
         <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
         <v>8.25</v>
@@ -3532,7 +3532,7 @@
         <v>15.5</v>
       </c>
       <c r="V26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W26" t="n">
         <v>40</v>
@@ -3544,37 +3544,37 @@
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA26" t="n">
         <v>6.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
         <v>90</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>35</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27">
@@ -3731,34 +3731,34 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
         <v>3.2</v>
@@ -3770,28 +3770,28 @@
         <v>2.3</v>
       </c>
       <c r="T28" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U28" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="W28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y28" t="n">
         <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB28" t="n">
         <v>12.5</v>
@@ -3800,16 +3800,16 @@
         <v>45</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AH28" t="n">
         <v>45</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3882,25 +3882,25 @@
         <v>2.45</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V29" t="n">
         <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
@@ -3909,7 +3909,7 @@
         <v>7.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB29" t="n">
         <v>15.5</v>
@@ -3918,25 +3918,25 @@
         <v>80</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE29" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="n">
         <v>45</v>
       </c>
       <c r="AJ29" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -668,10 +668,10 @@
         <v>2.63</v>
       </c>
       <c r="N2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
         <v>1.53</v>
@@ -683,19 +683,19 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T2" t="n">
         <v>5.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -704,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -716,10 +716,10 @@
         <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -805,7 +805,7 @@
         <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -900,16 +900,16 @@
         <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
@@ -927,7 +927,7 @@
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T4" t="n">
         <v>7.5</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1049,13 +1049,13 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1088,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1168,10 +1168,10 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.78</v>
@@ -1400,7 +1400,7 @@
         <v>1.93</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1409,61 +1409,61 @@
         <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V8" t="n">
         <v>12</v>
       </c>
-      <c r="V8" t="n">
-        <v>11.75</v>
-      </c>
       <c r="W8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1754,21 +1754,21 @@
         <v>4.4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O11" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U11" t="n">
         <v>17</v>
@@ -1780,16 +1780,16 @@
         <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>10.75</v>
@@ -1798,25 +1798,25 @@
         <v>35</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG11" t="n">
         <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -1983,7 +1983,7 @@
         <v>1.23</v>
       </c>
       <c r="M13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N13" t="n">
         <v>1.7</v>
@@ -1994,10 +1994,10 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="T13" t="n">
         <v>7.2</v>
@@ -2398,10 +2398,10 @@
         <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2410,10 +2410,10 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.29</v>
@@ -2517,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2559,7 +2559,7 @@
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
@@ -2583,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -2592,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2776,10 +2776,10 @@
         <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2898,10 +2898,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -2949,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>9.5</v>
@@ -3008,22 +3008,22 @@
         <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
@@ -3130,10 +3130,10 @@
         <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
         <v>1.14</v>
@@ -3142,10 +3142,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P23" t="n">
         <v>1.25</v>
@@ -3154,31 +3154,31 @@
         <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
         <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
@@ -3193,7 +3193,7 @@
         <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3202,13 +3202,13 @@
         <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K25" t="n">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="L25" t="n">
         <v>1.1</v>
@@ -3392,16 +3392,16 @@
         <v>3.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Q25" t="n">
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
         <v>11</v>
@@ -3410,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
@@ -3419,16 +3419,16 @@
         <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3449,7 +3449,7 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="n">
         <v>500</v>
@@ -3499,7 +3499,7 @@
         <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
@@ -3514,10 +3514,10 @@
         <v>1.62</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="R26" t="n">
         <v>1.91</v>
@@ -3526,16 +3526,16 @@
         <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V26" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X26" t="n">
         <v>32</v>
@@ -3544,10 +3544,10 @@
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB26" t="n">
         <v>16</v>
@@ -3568,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
         <v>35</v>
@@ -3615,10 +3615,10 @@
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
         <v>7.1</v>
@@ -3639,7 +3639,7 @@
         <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
         <v>1.78</v>
@@ -3648,7 +3648,7 @@
         <v>1.93</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U27" t="n">
         <v>8.75</v>
@@ -3663,7 +3663,7 @@
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z27" t="n">
         <v>7.1</v>
@@ -3675,10 +3675,10 @@
         <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -674,16 +674,16 @@
         <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R2" t="n">
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
         <v>5.5</v>
@@ -796,7 +796,7 @@
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
@@ -805,7 +805,7 @@
         <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -891,70 +891,70 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
+        <v>41</v>
+      </c>
+      <c r="X4" t="n">
         <v>34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -1049,7 +1049,7 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1168,22 +1168,22 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
         <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1204,25 +1204,25 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1525,7 +1525,7 @@
         <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1570,7 +1570,7 @@
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.2</v>
@@ -1874,34 +1874,34 @@
         <v>1.75</v>
       </c>
       <c r="P12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
         <v>9.5</v>
@@ -1910,13 +1910,13 @@
         <v>5.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC12" t="n">
         <v>45</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
@@ -1969,86 +1969,86 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="U13" t="n">
         <v>8.5</v>
       </c>
       <c r="V13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="W13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -2082,9 +2082,15 @@
           <t>Kelantan DNFC</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -2095,22 +2101,48 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>19</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>23</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>350</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>400</v>
+      </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>450</v>
+      </c>
       <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2172,7 +2204,7 @@
         <v>2.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
         <v>3.75</v>
@@ -2755,13 +2787,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2824,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3121,19 +3153,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L23" t="n">
         <v>1.14</v>
@@ -3142,10 +3174,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P23" t="n">
         <v>1.25</v>
@@ -3154,16 +3186,16 @@
         <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
       </c>
       <c r="U23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
@@ -3172,13 +3204,13 @@
         <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
         <v>19</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
@@ -3190,10 +3222,10 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3202,7 +3234,7 @@
         <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
         <v>34</v>
@@ -3243,7 +3275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
@@ -3258,16 +3290,16 @@
         <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3392,7 +3424,7 @@
         <v>3.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q25" t="n">
         <v>4.33</v>
@@ -3853,90 +3885,90 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="N29" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U29" t="n">
         <v>9.25</v>
       </c>
       <c r="V29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>18</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z29" t="n">
         <v>8.75</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AA29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
         <v>19</v>
       </c>
-      <c r="X29" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -647,64 +647,64 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
         <v>7.5</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
@@ -716,7 +716,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -772,16 +772,16 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -790,28 +790,28 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -912,13 +912,13 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
         <v>2.25</v>
@@ -930,19 +930,19 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -960,19 +960,19 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1028,34 +1028,34 @@
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1079,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="n">
         <v>8.5</v>
@@ -1088,16 +1088,16 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>41</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1150,16 +1150,16 @@
         <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1168,61 +1168,61 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
+        <v>41</v>
+      </c>
+      <c r="X6" t="n">
         <v>34</v>
-      </c>
-      <c r="X6" t="n">
-        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
@@ -1257,91 +1257,91 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I7" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="K7" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="M7" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="W7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="X7" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC7" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1382,88 +1382,88 @@
         <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="U8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
         <v>40</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1501,37 +1501,37 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.91</v>
@@ -1549,16 +1549,16 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
         <v>13</v>
       </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1588,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -1623,86 +1623,86 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U10" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="V10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
         <v>8.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1737,86 +1737,86 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
         <v>4.4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V11" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
@@ -1851,90 +1851,90 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="W12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -1969,86 +1969,90 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
         <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.45</v>
+      </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>6.7</v>
       </c>
-      <c r="U13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG13" t="n">
         <v>45</v>
       </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>30</v>
       </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2180,52 +2184,52 @@
         <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P15" t="n">
         <v>1.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2234,25 +2238,25 @@
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>41</v>
@@ -2264,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2299,13 +2303,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
         <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2341,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V16" t="n">
         <v>8.5</v>
@@ -2374,13 +2378,13 @@
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
         <v>51</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>34</v>
@@ -2421,13 +2425,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1.02</v>
@@ -2442,34 +2446,34 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T17" t="n">
         <v>9.5</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -2478,28 +2482,28 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
         <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
       </c>
       <c r="AD17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="n">
         <v>21</v>
       </c>
-      <c r="AE17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
       <c r="AG17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -2543,19 +2547,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2564,10 +2568,10 @@
         <v>2.63</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2576,25 +2580,25 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2606,25 +2610,25 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2787,13 +2791,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2802,43 +2806,43 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
@@ -2859,19 +2863,19 @@
         <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
         <v>26</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>201</v>
@@ -2909,19 +2913,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -2930,10 +2934,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2942,28 +2946,28 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
+        <v>34</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
         <v>29</v>
-      </c>
-      <c r="X21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -2972,31 +2976,31 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -3031,13 +3035,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3046,16 +3050,16 @@
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3079,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -3100,7 +3104,7 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -3153,31 +3157,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P23" t="n">
         <v>1.25</v>
@@ -3201,19 +3205,19 @@
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
         <v>21</v>
       </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
       <c r="AA23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3228,7 +3232,7 @@
         <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>51</v>
@@ -3275,67 +3279,67 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="P24" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
         <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3344,25 +3348,25 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25">
@@ -3397,31 +3401,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
         <v>7.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
       <c r="J25" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P25" t="n">
         <v>1.2</v>
@@ -3430,37 +3434,37 @@
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
         <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3469,10 +3473,10 @@
         <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
@@ -3484,7 +3488,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
@@ -3519,28 +3523,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K26" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N26" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
@@ -3549,64 +3553,64 @@
         <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U26" t="n">
         <v>16</v>
       </c>
       <c r="V26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W26" t="n">
         <v>45</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y26" t="n">
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF26" t="n">
         <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27">
@@ -3641,19 +3645,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H27" t="n">
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
         <v>1.31</v>
@@ -3662,16 +3666,16 @@
         <v>3.15</v>
       </c>
       <c r="N27" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R27" t="n">
         <v>1.78</v>
@@ -3698,10 +3702,10 @@
         <v>27</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB27" t="n">
         <v>14.5</v>
@@ -3713,13 +3717,13 @@
         <v>11.25</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>13</v>
       </c>
       <c r="AG27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH27" t="n">
         <v>37</v>
@@ -3763,13 +3767,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3781,43 +3785,43 @@
         <v>1.17</v>
       </c>
       <c r="M28" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="N28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.53</v>
       </c>
-      <c r="O28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U28" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
@@ -3826,10 +3830,10 @@
         <v>7.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD28" t="n">
         <v>19</v>
@@ -3838,19 +3842,19 @@
         <v>37</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH28" t="n">
         <v>45</v>
       </c>
       <c r="AI28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -3885,90 +3889,90 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>4.65</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>7.4</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
         <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF29" t="n">
         <v>15</v>
       </c>
-      <c r="AC29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
       <c r="AG29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="n">
         <v>50</v>
       </c>
-      <c r="AH29" t="n">
-        <v>35</v>
-      </c>
       <c r="AI29" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.5</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -716,7 +716,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -918,31 +918,31 @@
         <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
+        <v>41</v>
+      </c>
+      <c r="X4" t="n">
         <v>34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -963,16 +963,16 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1040,7 +1040,7 @@
         <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1168,16 +1168,16 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
         <v>13</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1204,19 +1204,19 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1296,19 +1296,19 @@
         <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="n">
         <v>120</v>
@@ -1320,7 +1320,7 @@
         <v>5.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
         <v>250</v>
@@ -1329,19 +1329,19 @@
         <v>4.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1394,25 +1394,25 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1421,10 +1421,10 @@
         <v>5.1</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W8" t="n">
         <v>40</v>
@@ -1442,19 +1442,19 @@
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
         <v>50</v>
@@ -1463,7 +1463,7 @@
         <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1522,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1868,73 +1868,73 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T12" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="V12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
         <v>5.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="n">
         <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -1998,10 +1998,10 @@
         <v>2.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T13" t="n">
         <v>5.5</v>
@@ -2318,16 +2318,16 @@
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
         <v>1.29</v>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2946,19 +2946,19 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>34</v>
@@ -2967,40 +2967,40 @@
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>9</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
         <v>21</v>
@@ -3157,73 +3157,73 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.75</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J23" t="n">
+        <v>23</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.02</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T23" t="n">
         <v>12</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>10</v>
-      </c>
       <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
         <v>9</v>
       </c>
-      <c r="V23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
@@ -3232,19 +3232,19 @@
         <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -3279,19 +3279,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3300,10 +3300,10 @@
         <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3324,7 +3324,7 @@
         <v>11</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>21</v>
@@ -3342,31 +3342,31 @@
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25">
@@ -3523,49 +3523,49 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="J26" t="n">
         <v>1.09</v>
       </c>
       <c r="K26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
         <v>1.62</v>
       </c>
       <c r="P26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V26" t="n">
         <v>11.75</v>
@@ -3580,10 +3580,10 @@
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB26" t="n">
         <v>15</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE26" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>32</v>
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>4.65</v>
@@ -3900,40 +3900,40 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="N29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S29" t="n">
         <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -3942,10 +3942,10 @@
         <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -3954,13 +3954,13 @@
         <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG29" t="n">
         <v>80</v>
@@ -3972,7 +3972,7 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1.11</v>
@@ -680,10 +680,10 @@
         <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -707,10 +707,10 @@
         <v>6.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>81</v>
@@ -719,7 +719,7 @@
         <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -728,7 +728,7 @@
         <v>51</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -778,10 +778,10 @@
         <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -802,16 +802,16 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -924,10 +924,10 @@
         <v>2.37</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>9.5</v>
@@ -1016,16 +1016,16 @@
         <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.5</v>
@@ -1034,10 +1034,10 @@
         <v>2.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
         <v>1.54</v>
@@ -1055,13 +1055,13 @@
         <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1082,10 +1082,10 @@
         <v>81</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1156,22 +1156,22 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1204,19 +1204,19 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>2.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
         <v>1.25</v>
@@ -1418,22 +1418,22 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="U8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="n">
         <v>3.55</v>
@@ -1445,25 +1445,25 @@
         <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1507,7 +1507,7 @@
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1516,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>1.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
         <v>2.75</v>
@@ -1555,10 +1555,10 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1588,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
@@ -1865,7 +1865,7 @@
         <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N12" t="n">
         <v>1.9</v>
@@ -1880,10 +1880,10 @@
         <v>2.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
         <v>7.1</v>
@@ -1969,13 +1969,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1992,7 +1992,7 @@
         <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
         <v>2.45</v>
@@ -2004,43 +2004,43 @@
         <v>1.79</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U13" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="V13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="n">
         <v>8.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>45</v>
@@ -2049,10 +2049,10 @@
         <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
@@ -2181,19 +2181,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
         <v>1.11</v>
@@ -2202,10 +2202,10 @@
         <v>6.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.22</v>
@@ -2214,43 +2214,43 @@
         <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -2268,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -2330,19 +2330,19 @@
         <v>2.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
         <v>8.5</v>
@@ -2360,7 +2360,7 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2387,10 +2387,10 @@
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -2446,10 +2446,10 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.25</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
         <v>17</v>
@@ -2494,7 +2494,7 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>41</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2806,28 +2806,28 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2839,7 +2839,7 @@
         <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2860,10 +2860,10 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>9.5</v>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2946,10 +2946,10 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -2961,10 +2961,10 @@
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>26</v>
@@ -2982,22 +2982,22 @@
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>126</v>
@@ -3157,31 +3157,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
         <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
         <v>1.02</v>
       </c>
       <c r="L23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>1.22</v>
@@ -3214,19 +3214,19 @@
         <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>34</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>34</v>
@@ -3279,94 +3279,94 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
         <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3645,79 +3645,79 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U27" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="V27" t="n">
         <v>8.25</v>
       </c>
       <c r="W27" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>13</v>
@@ -3726,10 +3726,10 @@
         <v>65</v>
       </c>
       <c r="AH27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ27" t="n">
         <v>500</v>
@@ -3892,18 +3892,18 @@
         <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N29" t="n">
         <v>1.98</v>
@@ -3918,22 +3918,22 @@
         <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
         <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V29" t="n">
         <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -3942,7 +3942,7 @@
         <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA29" t="n">
         <v>6.7</v>
@@ -3954,13 +3954,13 @@
         <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>80</v>
@@ -3972,7 +3972,7 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -778,10 +778,10 @@
         <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -900,10 +900,10 @@
         <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -918,10 +918,10 @@
         <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>2.1</v>
@@ -1028,19 +1028,19 @@
         <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>
@@ -1141,7 +1141,7 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1162,10 +1162,10 @@
         <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.91</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1207,16 +1207,16 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1382,49 +1382,49 @@
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
         <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
         <v>50</v>
@@ -1442,28 +1442,28 @@
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="n">
         <v>300</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>101</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1522,22 +1522,22 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
@@ -1552,13 +1552,13 @@
         <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1585,10 +1585,10 @@
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10">
@@ -2181,19 +2181,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" t="n">
         <v>1.11</v>
@@ -2208,7 +2208,7 @@
         <v>2.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
         <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U15" t="n">
         <v>12</v>
@@ -2238,22 +2238,22 @@
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2262,13 +2262,13 @@
         <v>41</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2324,16 +2324,16 @@
         <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
         <v>2.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.7</v>
@@ -2390,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -2446,13 +2446,13 @@
         <v>5.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O17" t="n">
         <v>2.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" t="n">
         <v>3.75</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>9.5</v>
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2702,22 +2702,22 @@
         <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V19" t="n">
         <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -2738,10 +2738,10 @@
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -2750,13 +2750,13 @@
         <v>41</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
         <v>41</v>
       </c>
       <c r="AJ19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
@@ -3035,13 +3035,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3056,10 +3056,10 @@
         <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3074,28 +3074,28 @@
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" t="n">
         <v>21</v>
       </c>
-      <c r="X22" t="n">
-        <v>17</v>
-      </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
         <v>13</v>
@@ -3104,22 +3104,22 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
         <v>201</v>
@@ -3401,13 +3401,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I25" t="n">
         <v>7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -3416,16 +3416,16 @@
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P25" t="n">
         <v>1.2</v>
@@ -3434,22 +3434,22 @@
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
         <v>9</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X25" t="n">
         <v>10</v>
@@ -3479,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
@@ -3892,18 +3892,18 @@
         <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N29" t="n">
         <v>1.98</v>
@@ -3936,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>30</v>
@@ -3948,7 +3948,7 @@
         <v>6.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -1022,22 +1022,22 @@
         <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
         <v>1.57</v>
@@ -1055,13 +1055,13 @@
         <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1082,7 +1082,7 @@
         <v>81</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1141,7 +1141,7 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1207,16 +1207,16 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
@@ -2193,7 +2193,7 @@
         <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
         <v>1.11</v>
@@ -2202,13 +2202,13 @@
         <v>6.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2568,10 +2568,10 @@
         <v>2.63</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2580,19 +2580,19 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
@@ -2601,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="n">
         <v>7</v>
@@ -2616,16 +2616,16 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
@@ -2678,10 +2678,10 @@
         <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2690,10 +2690,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -3889,21 +3889,21 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="N29" t="n">
         <v>1.98</v>
@@ -3918,22 +3918,22 @@
         <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T29" t="n">
         <v>6.1</v>
       </c>
       <c r="U29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -3954,10 +3954,10 @@
         <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -3966,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -933,10 +933,10 @@
         <v>8.5</v>
       </c>
       <c r="U4" t="n">
+        <v>17</v>
+      </c>
+      <c r="V4" t="n">
         <v>15</v>
-      </c>
-      <c r="V4" t="n">
-        <v>13</v>
       </c>
       <c r="W4" t="n">
         <v>41</v>
@@ -963,13 +963,13 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF4" t="n">
-        <v>10</v>
-      </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1022,10 +1022,10 @@
         <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.5</v>
@@ -1141,13 +1141,13 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1207,16 +1207,16 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -2181,13 +2181,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.01</v>
@@ -2214,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T15" t="n">
         <v>13</v>
@@ -2669,19 +2669,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2690,10 +2690,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -2708,25 +2708,25 @@
         <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2738,19 +2738,19 @@
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>41</v>
@@ -3889,13 +3889,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3903,13 +3903,13 @@
         <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
         <v>1.39</v>
@@ -3918,25 +3918,25 @@
         <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V29" t="n">
         <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
         <v>30</v>
@@ -3945,10 +3945,10 @@
         <v>8.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC29" t="n">
         <v>90</v>
@@ -3957,22 +3957,22 @@
         <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-10.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -802,22 +802,22 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -829,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -906,28 +906,28 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N4" t="n">
         <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
         <v>41</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -966,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1159,7 +1159,7 @@
         <v>2.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1168,10 +1168,10 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
@@ -2181,25 +2181,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N15" t="n">
         <v>1.36</v>
@@ -2220,28 +2220,28 @@
         <v>2.75</v>
       </c>
       <c r="T15" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" t="n">
         <v>13</v>
-      </c>
-      <c r="U15" t="n">
-        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
@@ -2253,19 +2253,19 @@
         <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>41</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>81</v>
